--- a/data/trans_camb/P43E-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P43E-Habitat-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.38456105507507</v>
+        <v>-9.78456629383186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.844107907337362</v>
+        <v>-8.191373860680601</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.439015941402709</v>
+        <v>0.08856302559419851</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.376080422183086</v>
+        <v>1.337511038370148</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5230816866878394</v>
+        <v>-0.5184238115846407</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.436643480987211</v>
+        <v>-0.4263082917958068</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.005613853658118668</v>
+        <v>0.02158928862532323</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1078887333220567</v>
+        <v>0.1046337196983351</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.29604231844749</v>
+        <v>-14.05264300376737</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.080853990263755</v>
+        <v>-8.241170077488743</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.936118243878895</v>
+        <v>-5.156803409118679</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7951607650272833</v>
+        <v>1.554354499359156</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5214525528380378</v>
+        <v>-0.5093251449963884</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3231390583006382</v>
+        <v>-0.3069404645745117</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.21566517249321</v>
+        <v>-0.2198941525251852</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03728827477430584</v>
+        <v>0.07425276423564743</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.38504670647639</v>
+        <v>-12.80808011102484</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07140330609941578</v>
+        <v>-0.09552595896976253</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.791119689806262</v>
+        <v>-2.053806077741578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.81657989621296</v>
+        <v>12.0428043404194</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4452238576242012</v>
+        <v>-0.4502434252323975</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.0005112482586547948</v>
+        <v>-0.001079702406123042</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.08699994512599142</v>
+        <v>-0.0857303338965939</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5303465507137471</v>
+        <v>0.5616006493344542</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-4.692040495451688</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>5.06399163635915</v>
+        <v>5.063991636359145</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-9.139973470118184</v>
+        <v>-9.446642905123015</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4313767310293948</v>
+        <v>-0.3076558420033833</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06546606142932133</v>
+        <v>-0.04059291193054866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.93194527606204</v>
+        <v>9.591416004635288</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.1984495775562308</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2141812292451274</v>
+        <v>0.2141812292451271</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.360924918556782</v>
+        <v>-0.3576432767833004</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.01663618612557904</v>
+        <v>-0.008344723986435596</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.00287389659088626</v>
+        <v>0.004869711491282769</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.461270458287723</v>
+        <v>0.4543952602863435</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-6.613810958360738</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.548087919728611</v>
+        <v>1.548087919728613</v>
       </c>
     </row>
     <row r="29">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.957050720944885</v>
+        <v>-9.042757411335495</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.8500192079459835</v>
+        <v>-1.133625677323119</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-4.101570053189399</v>
+        <v>-4.034687294125354</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.327613756250321</v>
+        <v>4.182522167159597</v>
       </c>
     </row>
     <row r="31">
@@ -966,7 +966,7 @@
         <v>-0.2874795499560193</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.06729004219471026</v>
+        <v>0.06729004219471037</v>
       </c>
     </row>
     <row r="32">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3702328291320151</v>
+        <v>-0.3707519697901004</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03575517900321623</v>
+        <v>-0.04655675391752295</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1861498520394684</v>
+        <v>-0.1878282349238864</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1956977736237299</v>
+        <v>0.1960234764581363</v>
       </c>
     </row>
     <row r="34">
